--- a/biology/Botanique/Agrocybe/Agrocybe.xlsx
+++ b/biology/Botanique/Agrocybe/Agrocybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrocybe (les agrocybes en français), est un genre de champignons basidiomycètes de la famille des Strophariaceae. 
-Ce genre contient environ 100 espèces dont une vingtaine européennes. Les espèces ne sont pas faciles à identifier sauf la pholiote du peuplier. Agrocibe rivulosa (tout comme Agaricus rufotegulis) a été disséminé hors de son aire naturelle de répartition via les mulchs de bois et écorce utilisés en jardinage et espaces verts[1].
+Ce genre contient environ 100 espèces dont une vingtaine européennes. Les espèces ne sont pas faciles à identifier sauf la pholiote du peuplier. Agrocibe rivulosa (tout comme Agaricus rufotegulis) a été disséminé hors de son aire naturelle de répartition via les mulchs de bois et écorce utilisés en jardinage et espaces verts.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains agrocybes sont toxiques.
 </t>
@@ -569,7 +585,9 @@
           <t>Espèce type</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agrocybe praecox</t>
         </is>
@@ -599,7 +617,9 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agrocybe parasitica, ex aegerita, ex cylindracea, la Pholiote du peuplier (depuis 2014, Cyclocybe parasitica).
 Agrocybe arenicola
